--- a/evonsys/src/main/java/com/evonsys/citi/testdata/TestData.xlsx
+++ b/evonsys/src/main/java/com/evonsys/citi/testdata/TestData.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8090D42E-FE48-4621-9FE8-61D9E5E80FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varun.kandukuri\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C81E2D-06AE-41C7-8D63-816340307B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20490" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Status" sheetId="2" r:id="rId2"/>
-    <sheet name="LoginData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test Steps</t>
   </si>
@@ -71,63 +73,6 @@
   </si>
   <si>
     <t>pass2</t>
-  </si>
-  <si>
-    <t>Test Scrpts</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Add to Cart</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>pswd1</t>
-  </si>
-  <si>
-    <t>username1</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>pwd2</t>
-  </si>
-  <si>
-    <t>username3</t>
-  </si>
-  <si>
-    <t>pswd3</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Execute Login Test</t>
-  </si>
-  <si>
-    <t>RunMode</t>
   </si>
 </sst>
 </file>
@@ -143,18 +88,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -184,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,16 +408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -535,126 +468,6 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5F6601-7918-404D-9C76-3211D50D6ABE}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7EAAF6-EEE9-4328-B964-3702A12BBE8F}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
